--- a/trading/trading_comparison.xlsx
+++ b/trading/trading_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -816,26 +816,26 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.224</t>
+          <t>0.225</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.025% -0.031%</t>
+          <t>-0.026% -0.030%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -847,39 +847,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>55</v>
+      </c>
       <c r="F10" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>1.391</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-0.026% -0.030%</t>
+          <t>-0.126% -0.219%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>97.6</t>
         </is>
       </c>
     </row>
@@ -896,36 +898,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
-        <v>55</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-0.126% -0.219%</t>
+          <t>-0.097% -0.230%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>97.6</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -954,17 +954,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-0.097% -0.230%</t>
+          <t>-0.093% -0.235%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -994,26 +994,26 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.071</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.392</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-0.093% -0.235%</t>
+          <t>-0.123% -0.222%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>97.6</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1038,26 +1038,26 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-0.123% -0.222%</t>
+          <t>-0.093% -0.235%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>97.6</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.071</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-0.093% -0.235%</t>
+          <t>-0.097% -0.230%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-0.097% -0.230%</t>
+          <t>-0.093% -0.235%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1201,39 +1201,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>-0.058</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.383</t>
+          <t>1.598</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-0.117% -0.225%</t>
+          <t>-0.256% -0.140%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>96.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1247,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1258,26 +1260,26 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.071</t>
+          <t>-0.052</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.576</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-0.093% -0.235%</t>
+          <t>-0.247% -0.144%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>98.4</t>
         </is>
       </c>
     </row>
@@ -1294,36 +1296,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.058</t>
+          <t>-0.019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.598</t>
+          <t>1.287</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-0.256% -0.140%</t>
+          <t>-0.179% -0.140%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>70.8</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.052</t>
+          <t>-0.049</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-0.247% -0.144%</t>
+          <t>-0.245% -0.146%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>98.4</t>
+          <t>98.8</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.049</t>
+          <t>-0.052</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-0.245% -0.146%</t>
+          <t>-0.247% -0.144%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>98.4</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1524,87 +1524,89 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.052</t>
+          <t>-0.009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>1.293</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-0.247% -0.144%</t>
+          <t>-0.169% -0.151%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>98.4</t>
+          <t>71.6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>ann</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>1.06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.019</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.287</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.179% -0.140%</t>
+          <t>0.064% -0.208%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>69.2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>ann</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1612,43 +1614,43 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.049</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>0.514</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-0.245% -0.146%</t>
+          <t>0.066% -0.193%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>61.6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>ann</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1656,26 +1658,26 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>1.31</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.009</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.293</t>
+          <t>0.413</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-0.169% -0.151%</t>
+          <t>0.024% -0.126%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -1692,36 +1694,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.136</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.583</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.064% -0.208%</t>
+          <t>0.056% -0.187%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>71.6</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1746,26 +1746,26 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.6900000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.514</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.066% -0.193%</t>
+          <t>0.022% -0.124%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>15.6</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1790,26 +1790,26 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1.31</v>
+        <v>0.75</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.413</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.024% -0.126%</t>
+          <t>0.058% -0.185%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>59.2</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1834,26 +1834,26 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>1.31</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>0.074</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.528</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.056% -0.187%</t>
+          <t>0.023% -0.125%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>15.2</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1878,26 +1878,26 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>1.31</v>
+        <v>0.47</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.073</t>
+          <t>0.124</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.412</t>
+          <t>0.531</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.022% -0.124%</t>
+          <t>0.058% -0.190%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>73.6</t>
         </is>
       </c>
     </row>
@@ -1909,39 +1909,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.512</t>
+          <t>1.310</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.058% -0.185%</t>
+          <t>0.275% -0.600%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1955,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1966,26 +1968,26 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>1.31</v>
+        <v>0.23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.074</t>
+          <t>0.420</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.412</t>
+          <t>1.251</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.023% -0.125%</t>
+          <t>0.265% -0.575%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>82.8</t>
         </is>
       </c>
     </row>
@@ -1997,12 +1999,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2010,26 +2012,26 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>1.27</v>
+        <v>0.37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.380</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.317</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.006% -0.084%</t>
+          <t>0.233% -0.527%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>68.0</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2043,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2054,26 +2056,26 @@
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.413</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>1.300</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.058% -0.190%</t>
+          <t>0.252% -0.575%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>73.6</t>
+          <t>88.4</t>
         </is>
       </c>
     </row>
@@ -2090,36 +2092,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.437</t>
+          <t>0.380</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.310</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.275% -0.600%</t>
+          <t>0.233% -0.527%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>68.0</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2232,26 +2232,26 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.413</t>
+          <t>0.374</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>1.184</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.252% -0.575%</t>
+          <t>0.227% -0.521%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>66.8</t>
         </is>
       </c>
     </row>
@@ -2263,39 +2263,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
       <c r="F42" t="n">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.416</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.233% -0.527%</t>
+          <t>0.313% -0.664%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>86.0</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2309,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2320,26 +2322,26 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.420</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.251</t>
+          <t>1.463</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.265% -0.575%</t>
+          <t>0.303% -0.666%</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>93.6</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2353,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2364,26 +2366,26 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.233% -0.527%</t>
+          <t>0.304% -0.666%</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>92.8</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2397,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2408,26 +2410,26 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.409</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>1.399</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.248% -0.570%</t>
+          <t>0.301% -0.648%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>87.2</t>
+          <t>77.6</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2441,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2452,26 +2454,26 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.374</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.184</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.227% -0.521%</t>
+          <t>0.304% -0.666%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>92.8</t>
         </is>
       </c>
     </row>
@@ -2488,36 +2490,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.488</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1.416</t>
+          <t>1.463</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.313% -0.664%</t>
+          <t>0.303% -0.666%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>93.6</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>1.461</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.303% -0.666%</t>
+          <t>0.304% -0.666%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>93.6</t>
+          <t>92.8</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2612,61 +2612,63 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>5</v>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
       <c r="F50" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.301% -0.648%</t>
+          <t>0.063% -0.209%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>78.8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2674,43 +2676,43 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.304% -0.666%</t>
+          <t>0.074% -0.222%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>84.4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2718,43 +2720,43 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.463</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.303% -0.666%</t>
+          <t>0.074% -0.222%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>93.6</t>
+          <t>84.4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2762,43 +2764,43 @@
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.149</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.304% -0.666%</t>
+          <t>0.075% -0.223%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>84.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2806,43 +2808,43 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.399</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.301% -0.648%</t>
+          <t>0.074% -0.222%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>84.4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>vecm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2850,26 +2852,26 @@
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.304% -0.666%</t>
+          <t>0.072% -0.219%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>82.0</t>
         </is>
       </c>
     </row>
@@ -2886,36 +2888,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>5</v>
       </c>
-      <c r="E56" t="n">
-        <v>40</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.136</t>
+          <t>0.149</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.590</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.063% -0.209%</t>
+          <t>0.075% -0.223%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>84.0</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2971,39 +2971,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>5</v>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>55</v>
+      </c>
       <c r="F58" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>0.236</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.280</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.074% -0.222%</t>
+          <t>0.077% -0.394%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.8</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3017,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3028,26 +3030,26 @@
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.149</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.075% -0.223%</t>
+          <t>0.102% -0.441%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>98.0</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3061,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -3076,22 +3078,22 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>0.229</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.074% -0.222%</t>
+          <t>0.078% -0.381%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>79.2</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3105,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -3116,26 +3118,26 @@
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.145</t>
+          <t>0.238</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.072% -0.219%</t>
+          <t>0.085% -0.391%</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>80.4</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3149,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -3160,26 +3162,26 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.149</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.075% -0.223%</t>
+          <t>0.102% -0.441%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>98.0</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3193,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -3204,26 +3206,26 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.149</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.075% -0.223%</t>
+          <t>0.102% -0.441%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>98.0</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3237,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -3252,22 +3254,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>0.229</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.074% -0.222%</t>
+          <t>0.078% -0.381%</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>79.2</t>
         </is>
       </c>
     </row>
@@ -3284,36 +3286,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" t="n">
-        <v>55</v>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.236</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.280</t>
+          <t>1.368</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.077% -0.394%</t>
+          <t>0.102% -0.441%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>98.0</t>
         </is>
       </c>
     </row>
@@ -3325,39 +3325,41 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
       <c r="F66" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.244</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.520</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.102% -0.441%</t>
+          <t>0.056% -0.432%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>87.6</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3371,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3382,26 +3384,26 @@
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>0.273</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.078% -0.381%</t>
+          <t>0.082% -0.464%</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>91.6</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3415,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3426,26 +3428,26 @@
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.238</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.517</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.085% -0.391%</t>
+          <t>0.107% -0.483%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3459,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3470,26 +3472,26 @@
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.282</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.534</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.102% -0.441%</t>
+          <t>0.091% -0.472%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>89.6</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3503,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3514,26 +3516,26 @@
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.517</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.102% -0.441%</t>
+          <t>0.107% -0.483%</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3547,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3558,26 +3560,26 @@
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>0.273</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.078% -0.381%</t>
+          <t>0.082% -0.464%</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>91.6</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3591,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3602,26 +3604,26 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.517</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.081% -0.388%</t>
+          <t>0.107% -0.483%</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3635,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3646,38 +3648,38 @@
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.282</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.368</t>
+          <t>1.534</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.102% -0.441%</t>
+          <t>0.091% -0.472%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>89.6</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3689,41 +3691,41 @@
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.244</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.520</t>
+          <t>0.599</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.056% -0.432%</t>
+          <t>0.098% -0.246%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>89.2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3736,38 +3738,38 @@
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.082% -0.464%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>91.6</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3780,38 +3782,38 @@
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1.517</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.107% -0.483%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3824,38 +3826,38 @@
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.282</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.091% -0.472%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3868,38 +3870,38 @@
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.517</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.107% -0.483%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3912,38 +3914,38 @@
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.542</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.082% -0.464%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>91.6</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3956,43 +3958,43 @@
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1.517</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.107% -0.483%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4000,70 +4002,72 @@
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.282</t>
+          <t>0.178</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.091% -0.472%</t>
+          <t>0.104% -0.251%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>86.8</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vecm</t>
+          <t>tvecm_long_t1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>45</v>
+      </c>
       <c r="F82" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.282</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1.534</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.091% -0.472%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4075,41 +4079,39 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
-      <c r="E83" t="n">
-        <v>5</v>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.599</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.098% -0.246%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4123,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -4134,26 +4136,26 @@
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4167,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4178,26 +4180,26 @@
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4211,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -4222,26 +4224,26 @@
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4255,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -4266,26 +4268,26 @@
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4299,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -4310,26 +4312,26 @@
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4341,12 +4343,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4354,26 +4356,26 @@
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.415</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.127% -0.223%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4385,39 +4387,41 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>5</v>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>55</v>
+      </c>
       <c r="F90" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.598</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.175% -0.221%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -4429,12 +4433,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -4442,26 +4446,26 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.595</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.104% -0.251%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>86.8</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4473,41 +4477,39 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>5</v>
       </c>
-      <c r="E92" t="n">
-        <v>45</v>
-      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4521,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4532,26 +4534,26 @@
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4563,12 +4565,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4576,26 +4578,26 @@
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4607,12 +4609,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4620,26 +4622,26 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4653,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4664,26 +4666,26 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4697,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4708,87 +4710,89 @@
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>1.573</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.154% -0.236%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>5</v>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
       <c r="F98" t="n">
-        <v>0.08</v>
+        <v>0.88</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>0.573</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.007% -0.135%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>78.8</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4796,43 +4800,43 @@
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>0.636</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>0.001% -0.158%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4840,89 +4844,87 @@
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1.415</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-0.127% -0.223%</t>
+          <t>-0.001% -0.157%</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>97.2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>5</v>
       </c>
-      <c r="E101" t="n">
-        <v>55</v>
-      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.082</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.598</t>
+          <t>0.636</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-0.175% -0.221%</t>
+          <t>0.003% -0.160%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4930,43 +4932,43 @@
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.001% -0.157%</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>97.2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4974,43 +4976,43 @@
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>0.636</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>0.001% -0.158%</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -5018,43 +5020,43 @@
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.079</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>0.636</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.000% -0.158%</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>93.6</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - the</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -5062,87 +5064,89 @@
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.001% -0.157%</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>97.2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>15</v>
+      </c>
       <c r="F106" t="n">
-        <v>0.12</v>
+        <v>0.93</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.499</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.086% -0.286%</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -5150,43 +5154,43 @@
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.487</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.142% -0.227%</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>97.6</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5194,43 +5198,43 @@
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.485</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.134% -0.234%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>96.8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>tvecm_long_t1</t>
+          <t>ols</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>the - nbp</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -5238,26 +5242,26 @@
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.484</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-0.154% -0.236%</t>
+          <t>-0.131% -0.236%</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>96.4</t>
         </is>
       </c>
     </row>
@@ -5269,41 +5273,39 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>5</v>
       </c>
-      <c r="E110" t="n">
-        <v>55</v>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>1.27</v>
+        <v>0.32</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>1.487</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0.038% -0.166%</t>
+          <t>-0.142% -0.227%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>97.6</t>
         </is>
       </c>
     </row>
@@ -5315,12 +5317,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -5328,26 +5330,26 @@
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>1.484</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0.043% -0.166%</t>
+          <t>-0.134% -0.234%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>96.8</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5361,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -5372,26 +5374,26 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.490</t>
+          <t>1.485</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0.034% -0.156%</t>
+          <t>-0.134% -0.234%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>96.8</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5405,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>ttf - nbp</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -5416,26 +5418,26 @@
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.494</t>
+          <t>1.487</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.034% -0.157%</t>
+          <t>-0.140% -0.229%</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>97.2</t>
         </is>
       </c>
     </row>
@@ -5447,39 +5449,41 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd</t>
+          <t>rolling</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>5</v>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>15</v>
+      </c>
       <c r="F114" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.040% -0.163%</t>
+          <t>-0.018% -0.388%</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>88.8</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5495,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>sGARCH_norm_21</t>
+          <t>sGARCH_norm</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -5504,26 +5508,26 @@
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>0.98</v>
+        <v>0.02</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>1.725</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>0.043% -0.166%</t>
+          <t>-0.120% -0.307%</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5539,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>sGARCH_sstd_21</t>
+          <t>sGARCH_sstd</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -5548,26 +5552,26 @@
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.097</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.490</t>
+          <t>1.724</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.034% -0.156%</t>
+          <t>-0.117% -0.311%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5583,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>fiGARCH_sstd_21</t>
+          <t>fiGARCH_sstd</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -5592,26 +5596,26 @@
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>1.700</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0.045% -0.168%</t>
+          <t>-0.085% -0.336%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>92.4</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5627,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ttf - the</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>gjrGARCH_sstd_21</t>
+          <t>gjrGARCH_sstd</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -5636,26 +5640,26 @@
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>0.87</v>
+        <v>0.01</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.498</t>
+          <t>1.725</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.044% -0.168%</t>
+          <t>-0.120% -0.307%</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -5667,41 +5671,39 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>rolling</t>
+          <t>sGARCH_norm_21</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>5</v>
       </c>
-      <c r="E119" t="n">
-        <v>15</v>
-      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>1.05</v>
+        <v>0.02</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0.227</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>1.725</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0.063% -0.390%</t>
+          <t>-0.120% -0.307%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5715,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>sGARCH_norm</t>
+          <t>sGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -5726,26 +5728,26 @@
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1.485</t>
+          <t>1.725</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>-0.039% -0.330%</t>
+          <t>-0.120% -0.307%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5759,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ttf - nbp</t>
+          <t>the - nbp</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>sGARCH_sstd</t>
+          <t>gjrGARCH_sstd_21</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5770,3064 +5772,26 @@
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.097</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.487</t>
+          <t>1.724</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-0.039% -0.330%</t>
+          <t>-0.117% -0.311%</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>fiGARCH_sstd</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>1.487</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>gjrGARCH_sstd</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>5</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>1.487</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>sGARCH_norm_21</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>5</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>1.485</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>sGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>5</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>1.487</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>fiGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>1.487</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>gjrGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>5</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>0.146</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>1.487</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>-0.039% -0.330%</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>97.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>rolling</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>0.245</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>0.076% -0.414%</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>81.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>sGARCH_norm</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>5</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>0.241</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>1.395</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>0.068% -0.414%</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>82.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>sGARCH_sstd</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>5</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>0.195</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>1.554</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>0.002% -0.388%</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>92.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>fiGARCH_sstd</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>5</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>0.195</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>1.554</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>0.002% -0.388%</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>92.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>gjrGARCH_sstd</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>5</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>0.195</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>1.560</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>0.002% -0.388%</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>sGARCH_norm_21</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>5</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>0.228</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>1.498</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>0.043% -0.414%</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>90.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>sGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>0.218</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>1.507</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>0.031% -0.405%</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>fiGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>5</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>0.223</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>1.504</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>0.037% -0.410%</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>91.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>ols</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>gjrGARCH_sstd_21</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>0.192</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>1.559</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>-0.002% -0.385%</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>93.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>5</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>5</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>5</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>5</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>5</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>5</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>5</v>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>5</v>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>-0.107</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>0.633</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>-0.185% --0.028%</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>5</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>5</v>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>5</v>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>5</v>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>5</v>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>5</v>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>5</v>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>5</v>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>-0.144</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>1.408</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>-0.319% -0.030%</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>5</v>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>5</v>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>5</v>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>5</v>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>5</v>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>5</v>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>5</v>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>5</v>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>5</v>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>-0.091</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>1.596</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>-0.289% -0.107%</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>5</v>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>5</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>5</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>5</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>5</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>5</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>5</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>5</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ttf - the</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>5</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>0.339</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>0.546</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>0.271% -0.406%</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>5</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>5</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>5</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>5</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>5</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>5</v>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>5</v>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>5</v>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ttf - nbp</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>1.065</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>0.933</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>0.950% -1.181%</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>5</v>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>5</v>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>5</v>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>5</v>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>5</v>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>5</v>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>5</v>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>5</v>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>perfect_information</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>the - nbp</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>5</v>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>1.165</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>1.094</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>1.030% -1.301%</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>100.0</t>
+          <t>99.6</t>
         </is>
       </c>
     </row>
